--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/85.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/85.xlsx
@@ -479,13 +479,13 @@
         <v>-6.882702809403036</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.44835048906341</v>
+        <v>-9.363049632690691</v>
       </c>
       <c r="F2" t="n">
-        <v>5.539210422462633</v>
+        <v>3.931968970991811</v>
       </c>
       <c r="G2" t="n">
-        <v>-19.72767085544738</v>
+        <v>-16.45803506604007</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-6.052685726806576</v>
       </c>
       <c r="E3" t="n">
-        <v>-10.79504463301695</v>
+        <v>-9.878918081260089</v>
       </c>
       <c r="F3" t="n">
-        <v>5.568383126437514</v>
+        <v>4.001182641206726</v>
       </c>
       <c r="G3" t="n">
-        <v>-19.19561490514162</v>
+        <v>-16.00448189899637</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-5.231182898080206</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.88454768172956</v>
+        <v>-9.999588548749283</v>
       </c>
       <c r="F4" t="n">
-        <v>5.377677635579762</v>
+        <v>3.929881365059638</v>
       </c>
       <c r="G4" t="n">
-        <v>-18.40779056059322</v>
+        <v>-15.40045976760963</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-4.505060847456249</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.32771170918106</v>
+        <v>-10.62598766456589</v>
       </c>
       <c r="F5" t="n">
-        <v>5.690148731464897</v>
+        <v>4.186735118826749</v>
       </c>
       <c r="G5" t="n">
-        <v>-17.81867990015057</v>
+        <v>-14.84898957103535</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-3.852935204589409</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.73334283091526</v>
+        <v>-11.15996010556348</v>
       </c>
       <c r="F6" t="n">
-        <v>5.518955267013004</v>
+        <v>4.123613151168009</v>
       </c>
       <c r="G6" t="n">
-        <v>-17.36237422224079</v>
+        <v>-14.41443997368335</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-3.274647000190534</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.58105262057651</v>
+        <v>-12.02723081169925</v>
       </c>
       <c r="F7" t="n">
-        <v>5.623536012903181</v>
+        <v>4.254125189480304</v>
       </c>
       <c r="G7" t="n">
-        <v>-16.51198525681647</v>
+        <v>-13.8961270216805</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-2.753694229380982</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.37533534319612</v>
+        <v>-12.85794152448424</v>
       </c>
       <c r="F8" t="n">
-        <v>5.807054663666568</v>
+        <v>4.361698007573034</v>
       </c>
       <c r="G8" t="n">
-        <v>-16.09617522278536</v>
+        <v>-13.4766648995198</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-2.286451516584682</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.95378796866889</v>
+        <v>-13.43832041866258</v>
       </c>
       <c r="F9" t="n">
-        <v>5.913737682509518</v>
+        <v>4.572389758502734</v>
       </c>
       <c r="G9" t="n">
-        <v>-16.08238822342066</v>
+        <v>-13.39614295642171</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-1.856282632497898</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.69604676921765</v>
+        <v>-14.36288539627173</v>
       </c>
       <c r="F10" t="n">
-        <v>6.24391676126662</v>
+        <v>4.845567906198474</v>
       </c>
       <c r="G10" t="n">
-        <v>-15.36102992722796</v>
+        <v>-12.79828097368728</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-1.46307253563793</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.0907509606043</v>
+        <v>-14.9523627322294</v>
       </c>
       <c r="F11" t="n">
-        <v>6.146654858656214</v>
+        <v>4.807775883117221</v>
       </c>
       <c r="G11" t="n">
-        <v>-14.76245903849783</v>
+        <v>-12.19906473605072</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-1.102836570316049</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.14593553467682</v>
+        <v>-15.99575991074579</v>
       </c>
       <c r="F12" t="n">
-        <v>6.570497530969671</v>
+        <v>5.134073090421992</v>
       </c>
       <c r="G12" t="n">
-        <v>-14.38709086926983</v>
+        <v>-11.79460208695771</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.7728224233863108</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.65534560517502</v>
+        <v>-16.66726989292343</v>
       </c>
       <c r="F13" t="n">
-        <v>6.776422500204129</v>
+        <v>5.307178156558849</v>
       </c>
       <c r="G13" t="n">
-        <v>-13.85403267255636</v>
+        <v>-11.25079296414389</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.48217307338343</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.98771731257415</v>
+        <v>-18.04114926862266</v>
       </c>
       <c r="F14" t="n">
-        <v>6.86464462911761</v>
+        <v>5.424220980952793</v>
       </c>
       <c r="G14" t="n">
-        <v>-13.21811954937673</v>
+        <v>-10.68447974272167</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.234127154085352</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.19225869286527</v>
+        <v>-18.55236338265476</v>
       </c>
       <c r="F15" t="n">
-        <v>6.893538659701076</v>
+        <v>5.516667211799287</v>
       </c>
       <c r="G15" t="n">
-        <v>-12.65771713725661</v>
+        <v>-10.0406513174245</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.0336939427892803</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.40542663483528</v>
+        <v>-19.72639971366198</v>
       </c>
       <c r="F16" t="n">
-        <v>6.86470818620688</v>
+        <v>5.377599411469892</v>
       </c>
       <c r="G16" t="n">
-        <v>-12.54133921779656</v>
+        <v>-9.942240498200372</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.1137160980818274</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.468428730888</v>
+        <v>-20.88631659283755</v>
       </c>
       <c r="F17" t="n">
-        <v>7.19225697926958</v>
+        <v>5.74816168694771</v>
       </c>
       <c r="G17" t="n">
-        <v>-12.21492956333385</v>
+        <v>-9.412770832527217</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.211413497571069</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.23413031936362</v>
+        <v>-21.73476462253571</v>
       </c>
       <c r="F18" t="n">
-        <v>7.458072282623745</v>
+        <v>5.893849202574909</v>
       </c>
       <c r="G18" t="n">
-        <v>-11.56409030218954</v>
+        <v>-8.867504785667059</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.2654042371844718</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.91323292920557</v>
+        <v>-22.57647560077125</v>
       </c>
       <c r="F19" t="n">
-        <v>7.40702127291942</v>
+        <v>5.919257371262266</v>
       </c>
       <c r="G19" t="n">
-        <v>-10.99445744510467</v>
+        <v>-8.265795154528369</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.2865128445451635</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.71436515044572</v>
+        <v>-23.30561719589608</v>
       </c>
       <c r="F20" t="n">
-        <v>7.341141905387741</v>
+        <v>6.018367318468366</v>
       </c>
       <c r="G20" t="n">
-        <v>-10.25874502475071</v>
+        <v>-7.564051553885732</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.2900230945647584</v>
       </c>
       <c r="E21" t="n">
-        <v>-23.55497610213621</v>
+        <v>-24.19039543562228</v>
       </c>
       <c r="F21" t="n">
-        <v>7.571961697588529</v>
+        <v>6.067272054158116</v>
       </c>
       <c r="G21" t="n">
-        <v>-9.643219060206119</v>
+        <v>-7.017475253185242</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.2887384151187389</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.96321306453047</v>
+        <v>-24.63317812053817</v>
       </c>
       <c r="F22" t="n">
-        <v>7.459993662322443</v>
+        <v>6.037312220077661</v>
       </c>
       <c r="G22" t="n">
-        <v>-9.102152670244642</v>
+        <v>-6.653606028108229</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.2935494540017639</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.57262288148456</v>
+        <v>-25.18689237126435</v>
       </c>
       <c r="F23" t="n">
-        <v>7.341063681277871</v>
+        <v>5.969648365039558</v>
       </c>
       <c r="G23" t="n">
-        <v>-8.506881861149679</v>
+        <v>-6.089952426421605</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.3109352539866847</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.00841428658075</v>
+        <v>-25.60412510629374</v>
       </c>
       <c r="F24" t="n">
-        <v>7.64351231308583</v>
+        <v>6.196268500341667</v>
       </c>
       <c r="G24" t="n">
-        <v>-8.068328167173675</v>
+        <v>-5.78844737293896</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.3402979050540473</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.21612374332163</v>
+        <v>-25.79826756897893</v>
       </c>
       <c r="F25" t="n">
-        <v>7.399941990976127</v>
+        <v>5.941292125211452</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.737547740571943</v>
+        <v>-5.444236844473814</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.3770931483724296</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.38166551583538</v>
+        <v>-25.87737170008561</v>
       </c>
       <c r="F26" t="n">
-        <v>7.462511500858905</v>
+        <v>6.002600271322565</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.176724873861263</v>
+        <v>-5.013055772853116</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.4125132570600626</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.28688233970649</v>
+        <v>-25.91915315277027</v>
       </c>
       <c r="F27" t="n">
-        <v>7.476973183171239</v>
+        <v>6.01826464932416</v>
       </c>
       <c r="G27" t="n">
-        <v>-6.980529028291965</v>
+        <v>-4.893993788623137</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.4364638414550048</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.20909335144701</v>
+        <v>-25.87952286310706</v>
       </c>
       <c r="F28" t="n">
-        <v>7.250563275164407</v>
+        <v>5.875251420453164</v>
       </c>
       <c r="G28" t="n">
-        <v>-6.882274657287575</v>
+        <v>-4.787594332178466</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.4388191072975916</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.25863365802946</v>
+        <v>-25.77336296799887</v>
       </c>
       <c r="F29" t="n">
-        <v>6.970584518916789</v>
+        <v>5.725129575597674</v>
       </c>
       <c r="G29" t="n">
-        <v>-6.480632965156778</v>
+        <v>-4.430207930206985</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.4093255558845499</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.24566312281154</v>
+        <v>-25.71539401357786</v>
       </c>
       <c r="F30" t="n">
-        <v>6.962028756899688</v>
+        <v>5.759689965139896</v>
       </c>
       <c r="G30" t="n">
-        <v>-6.74701050430064</v>
+        <v>-4.750784999477464</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.3411584274213347</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.03270776170245</v>
+        <v>-25.49137971893581</v>
       </c>
       <c r="F31" t="n">
-        <v>7.188291994700512</v>
+        <v>5.956291598279146</v>
       </c>
       <c r="G31" t="n">
-        <v>-6.80246162018519</v>
+        <v>-4.933428518011673</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.2279756003283357</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.87460705764016</v>
+        <v>-25.11264302397651</v>
       </c>
       <c r="F32" t="n">
-        <v>7.069684688109155</v>
+        <v>5.921648095620188</v>
       </c>
       <c r="G32" t="n">
-        <v>-6.786792353176727</v>
+        <v>-4.93665037353697</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.06627167098562181</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.6923253256141</v>
+        <v>-24.90803808659612</v>
       </c>
       <c r="F33" t="n">
-        <v>7.02508227846229</v>
+        <v>5.837982521106672</v>
       </c>
       <c r="G33" t="n">
-        <v>-6.827224439966114</v>
+        <v>-4.890346589500418</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-0.1411432191248435</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.42342505892691</v>
+        <v>-24.66037077673194</v>
       </c>
       <c r="F34" t="n">
-        <v>7.123141089192004</v>
+        <v>6.006878152331115</v>
       </c>
       <c r="G34" t="n">
-        <v>-6.64915214285247</v>
+        <v>-4.843495236694772</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-0.3916223555532499</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.23444538749318</v>
+        <v>-24.53634645053205</v>
       </c>
       <c r="F35" t="n">
-        <v>7.499531060855184</v>
+        <v>6.213556028623078</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.05551172660984</v>
+        <v>-5.183217656856091</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-0.6771622581706537</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.75319110754154</v>
+        <v>-23.91979868355227</v>
       </c>
       <c r="F36" t="n">
-        <v>7.572763494714703</v>
+        <v>6.350218437573951</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.246231884488192</v>
+        <v>-5.371219526916438</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-0.9860038356953996</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.26765894658135</v>
+        <v>-23.45347054156532</v>
       </c>
       <c r="F37" t="n">
-        <v>7.631661360440428</v>
+        <v>6.338479932086488</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.205418455163186</v>
+        <v>-5.4774429791139</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-1.308413462314038</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.76201830037754</v>
+        <v>-22.95975418310992</v>
       </c>
       <c r="F38" t="n">
-        <v>7.392960489170172</v>
+        <v>6.229953757654711</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.185779314578789</v>
+        <v>-5.508957517378033</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-1.630579508792801</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.26662501256678</v>
+        <v>-22.37865171591527</v>
       </c>
       <c r="F39" t="n">
-        <v>7.389689743576207</v>
+        <v>6.215428518253106</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.353868259670191</v>
+        <v>-5.680747440667691</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-1.939981075067917</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.85746891688154</v>
+        <v>-21.93204582762946</v>
       </c>
       <c r="F40" t="n">
-        <v>7.222202146329434</v>
+        <v>6.128775760543906</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.332351740448899</v>
+        <v>-5.59303376846837</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-2.227452786300318</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.37652753336938</v>
+        <v>-21.36544904380895</v>
       </c>
       <c r="F41" t="n">
-        <v>7.475296253815887</v>
+        <v>6.311072159590563</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.816959879111242</v>
+        <v>-5.915419770279609</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-2.482353710146999</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.01132849842457</v>
+        <v>-20.92869450435997</v>
       </c>
       <c r="F42" t="n">
-        <v>7.453021938530223</v>
+        <v>6.231679577078732</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.778053162464333</v>
+        <v>-5.861391355393332</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-2.700985861766906</v>
       </c>
       <c r="E43" t="n">
-        <v>-20.64366540401883</v>
+        <v>-20.49265375991356</v>
       </c>
       <c r="F43" t="n">
-        <v>7.38607187849469</v>
+        <v>6.236382801684704</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.986882201777738</v>
+        <v>-6.092015587319444</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-2.882125595061999</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.77084078608224</v>
+        <v>-19.68009592962543</v>
       </c>
       <c r="F44" t="n">
-        <v>7.552283444949197</v>
+        <v>6.336372770126848</v>
       </c>
       <c r="G44" t="n">
-        <v>-8.043619126468286</v>
+        <v>-6.209825985791493</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-3.024358469647907</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.98811078668916</v>
+        <v>-19.03323632007078</v>
       </c>
       <c r="F45" t="n">
-        <v>7.731558437752101</v>
+        <v>6.425196246884959</v>
       </c>
       <c r="G45" t="n">
-        <v>-8.166137638553176</v>
+        <v>-6.317613920186367</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-3.13541203484341</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.61514311983281</v>
+        <v>-18.55142469333631</v>
       </c>
       <c r="F46" t="n">
-        <v>7.598538338917079</v>
+        <v>6.385859297633761</v>
       </c>
       <c r="G46" t="n">
-        <v>-8.173212031489602</v>
+        <v>-6.403870668339347</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-3.223997604670665</v>
       </c>
       <c r="E47" t="n">
-        <v>-18.28905125081645</v>
+        <v>-17.94198065333416</v>
       </c>
       <c r="F47" t="n">
-        <v>7.811992378726586</v>
+        <v>6.536225592832598</v>
       </c>
       <c r="G47" t="n">
-        <v>-8.613457321841558</v>
+        <v>-6.686689937576643</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-3.299255782498649</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.4661678380254</v>
+        <v>-17.18746511257005</v>
       </c>
       <c r="F48" t="n">
-        <v>7.805910454184144</v>
+        <v>6.516855347625881</v>
       </c>
       <c r="G48" t="n">
-        <v>-8.657668610939069</v>
+        <v>-6.727205137482767</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-3.377336255487886</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.98575446725487</v>
+        <v>-16.71951870931015</v>
       </c>
       <c r="F49" t="n">
-        <v>7.749540205008614</v>
+        <v>6.454921408635802</v>
       </c>
       <c r="G49" t="n">
-        <v>-8.871034648624972</v>
+        <v>-6.847078696852655</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-3.468631333802881</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.43292512677159</v>
+        <v>-16.00982558350191</v>
       </c>
       <c r="F50" t="n">
-        <v>7.697291388621895</v>
+        <v>6.440391280227331</v>
       </c>
       <c r="G50" t="n">
-        <v>-9.427032065558008</v>
+        <v>-7.301458106056863</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-3.583003751114624</v>
       </c>
       <c r="E51" t="n">
-        <v>-15.94881077780281</v>
+        <v>-15.58736650013178</v>
       </c>
       <c r="F51" t="n">
-        <v>7.669292046295072</v>
+        <v>6.481102040408132</v>
       </c>
       <c r="G51" t="n">
-        <v>-9.588838636825425</v>
+        <v>-7.381789377887142</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.733392544706874</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.33274702250285</v>
+        <v>-14.94053622461834</v>
       </c>
       <c r="F52" t="n">
-        <v>7.598621452033817</v>
+        <v>6.478662425981542</v>
       </c>
       <c r="G52" t="n">
-        <v>-9.910021942947402</v>
+        <v>-7.65059675344386</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.919859102992055</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.16440873806124</v>
+        <v>-14.65835741528061</v>
       </c>
       <c r="F53" t="n">
-        <v>7.782844119786039</v>
+        <v>6.629659403066209</v>
       </c>
       <c r="G53" t="n">
-        <v>-10.38685167168448</v>
+        <v>-8.062324466741103</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-4.146978741574815</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.66767586236895</v>
+        <v>-14.10289290009606</v>
       </c>
       <c r="F54" t="n">
-        <v>7.733875827007019</v>
+        <v>6.627117119495414</v>
       </c>
       <c r="G54" t="n">
-        <v>-10.62232579842258</v>
+        <v>-8.230384077791305</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-4.416802111619093</v>
       </c>
       <c r="E55" t="n">
-        <v>-14.2185179124986</v>
+        <v>-13.7418397429744</v>
       </c>
       <c r="F55" t="n">
-        <v>7.740373317133149</v>
+        <v>6.626119762094563</v>
       </c>
       <c r="G55" t="n">
-        <v>-11.0875783588988</v>
+        <v>-8.702789255313828</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-4.719236617523602</v>
       </c>
       <c r="E56" t="n">
-        <v>-13.95741561176414</v>
+        <v>-13.50368644047323</v>
       </c>
       <c r="F56" t="n">
-        <v>7.523648531729676</v>
+        <v>6.338543489175759</v>
       </c>
       <c r="G56" t="n">
-        <v>-11.46397810857572</v>
+        <v>-9.064165086888714</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-5.05299341894262</v>
       </c>
       <c r="E57" t="n">
-        <v>-13.6788742235354</v>
+        <v>-13.08654170756745</v>
       </c>
       <c r="F57" t="n">
-        <v>7.529608231100445</v>
+        <v>6.340450201853855</v>
       </c>
       <c r="G57" t="n">
-        <v>-12.05112338825787</v>
+        <v>-9.51406127679596</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-5.409891404971869</v>
       </c>
       <c r="E58" t="n">
-        <v>-13.37194726143735</v>
+        <v>-12.83910418102602</v>
       </c>
       <c r="F58" t="n">
-        <v>7.38516741222431</v>
+        <v>6.237028150591136</v>
       </c>
       <c r="G58" t="n">
-        <v>-12.24450316587182</v>
+        <v>-9.83088358879265</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-5.776411207786539</v>
       </c>
       <c r="E59" t="n">
-        <v>-13.14828008628285</v>
+        <v>-12.60062820407164</v>
       </c>
       <c r="F59" t="n">
-        <v>7.462785285243452</v>
+        <v>6.247094615730115</v>
       </c>
       <c r="G59" t="n">
-        <v>-12.24960728904088</v>
+        <v>-9.888974768385333</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-6.148034719213696</v>
       </c>
       <c r="E60" t="n">
-        <v>-12.5754987087757</v>
+        <v>-12.07653644595209</v>
       </c>
       <c r="F60" t="n">
-        <v>7.486819643001206</v>
+        <v>6.342278690422082</v>
       </c>
       <c r="G60" t="n">
-        <v>-12.39154982540802</v>
+        <v>-10.11565846077671</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-6.509847158261189</v>
       </c>
       <c r="E61" t="n">
-        <v>-12.39677617374875</v>
+        <v>-11.86991723774253</v>
       </c>
       <c r="F61" t="n">
-        <v>7.154200949817514</v>
+        <v>6.076038043470494</v>
       </c>
       <c r="G61" t="n">
-        <v>-12.56147214807452</v>
+        <v>-10.31429880977947</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-6.849397177346631</v>
       </c>
       <c r="E62" t="n">
-        <v>-12.38027577557292</v>
+        <v>-11.74583424346023</v>
       </c>
       <c r="F62" t="n">
-        <v>7.387333242266354</v>
+        <v>6.144542807689707</v>
       </c>
       <c r="G62" t="n">
-        <v>-12.82816747266473</v>
+        <v>-10.56248435437154</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-7.161269116269026</v>
       </c>
       <c r="E63" t="n">
-        <v>-12.36206422499366</v>
+        <v>-11.69346809090871</v>
       </c>
       <c r="F63" t="n">
-        <v>7.346637149106154</v>
+        <v>6.116015452621258</v>
       </c>
       <c r="G63" t="n">
-        <v>-12.91018056285723</v>
+        <v>-10.6609782867124</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-7.428613803636394</v>
       </c>
       <c r="E64" t="n">
-        <v>-12.56627315281783</v>
+        <v>-11.70524081944424</v>
       </c>
       <c r="F64" t="n">
-        <v>7.205960865517542</v>
+        <v>5.942250370557367</v>
       </c>
       <c r="G64" t="n">
-        <v>-13.1991942037949</v>
+        <v>-10.91462974098169</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-7.646741394144215</v>
       </c>
       <c r="E65" t="n">
-        <v>-12.56862965412768</v>
+        <v>-11.76092171865153</v>
       </c>
       <c r="F65" t="n">
-        <v>7.380747750016619</v>
+        <v>6.117032366049576</v>
       </c>
       <c r="G65" t="n">
-        <v>-13.25575023523138</v>
+        <v>-10.96548030140447</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-7.812364074883932</v>
       </c>
       <c r="E66" t="n">
-        <v>-12.51438612293926</v>
+        <v>-11.67203468480415</v>
       </c>
       <c r="F66" t="n">
-        <v>7.130318151272634</v>
+        <v>5.920797408425344</v>
       </c>
       <c r="G66" t="n">
-        <v>-13.46808958147523</v>
+        <v>-11.20713902182921</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-7.91564462464305</v>
       </c>
       <c r="E67" t="n">
-        <v>-12.86317276183184</v>
+        <v>-11.92182871265544</v>
       </c>
       <c r="F67" t="n">
-        <v>7.121953060523343</v>
+        <v>5.862178216091034</v>
       </c>
       <c r="G67" t="n">
-        <v>-13.54393763400854</v>
+        <v>-11.32077420843691</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-7.959293849535491</v>
       </c>
       <c r="E68" t="n">
-        <v>-12.71496740766818</v>
+        <v>-11.68599768841606</v>
       </c>
       <c r="F68" t="n">
-        <v>7.211363218105483</v>
+        <v>5.910784722361902</v>
       </c>
       <c r="G68" t="n">
-        <v>-13.54125845824548</v>
+        <v>-11.41459425021301</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-7.943518774885275</v>
       </c>
       <c r="E69" t="n">
-        <v>-13.17585897401912</v>
+        <v>-12.04686995228365</v>
       </c>
       <c r="F69" t="n">
-        <v>7.259739941053607</v>
+        <v>5.948635413525558</v>
       </c>
       <c r="G69" t="n">
-        <v>-13.28654608948607</v>
+        <v>-11.42481227456486</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-7.866562788978182</v>
       </c>
       <c r="E70" t="n">
-        <v>-13.06149043638138</v>
+        <v>-11.99104727187722</v>
       </c>
       <c r="F70" t="n">
-        <v>7.414330338185458</v>
+        <v>6.049290286901603</v>
       </c>
       <c r="G70" t="n">
-        <v>-13.26465311673603</v>
+        <v>-11.42067617475545</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-7.738532094791961</v>
       </c>
       <c r="E71" t="n">
-        <v>-13.36265325938334</v>
+        <v>-12.27980179545095</v>
       </c>
       <c r="F71" t="n">
-        <v>7.281486243597644</v>
+        <v>5.924957953269089</v>
       </c>
       <c r="G71" t="n">
-        <v>-13.19700392871853</v>
+        <v>-11.35560349335681</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-7.562374350673008</v>
       </c>
       <c r="E72" t="n">
-        <v>-13.3861107143308</v>
+        <v>-12.30862737993828</v>
       </c>
       <c r="F72" t="n">
-        <v>7.270011744480995</v>
+        <v>5.760222866888389</v>
       </c>
       <c r="G72" t="n">
-        <v>-13.38023412807676</v>
+        <v>-11.37256345817814</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-7.342199757645967</v>
       </c>
       <c r="E73" t="n">
-        <v>-13.77258181815356</v>
+        <v>-12.51736841712808</v>
       </c>
       <c r="F73" t="n">
-        <v>7.393561837014803</v>
+        <v>5.938520058317911</v>
       </c>
       <c r="G73" t="n">
-        <v>-13.35241078999715</v>
+        <v>-11.31157309751338</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-7.092560687432843</v>
       </c>
       <c r="E74" t="n">
-        <v>-13.91462213465804</v>
+        <v>-12.73079801190325</v>
       </c>
       <c r="F74" t="n">
-        <v>7.267474349917067</v>
+        <v>5.820318539296508</v>
       </c>
       <c r="G74" t="n">
-        <v>-13.3408629557775</v>
+        <v>-11.29858789527485</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-6.815734287004616</v>
       </c>
       <c r="E75" t="n">
-        <v>-14.49393522533939</v>
+        <v>-13.30545187904043</v>
       </c>
       <c r="F75" t="n">
-        <v>7.338325837432398</v>
+        <v>5.807978685964414</v>
       </c>
       <c r="G75" t="n">
-        <v>-13.45659552633111</v>
+        <v>-11.34304363471571</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-6.520400077547233</v>
       </c>
       <c r="E76" t="n">
-        <v>-14.64053209624383</v>
+        <v>-13.33582238969771</v>
       </c>
       <c r="F76" t="n">
-        <v>7.400122884230202</v>
+        <v>5.77500722365394</v>
       </c>
       <c r="G76" t="n">
-        <v>-13.49925700025181</v>
+        <v>-11.2739913017274</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-6.217668694075983</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.22265636587366</v>
+        <v>-13.87542207759911</v>
       </c>
       <c r="F77" t="n">
-        <v>7.410692917076473</v>
+        <v>5.755480530227482</v>
       </c>
       <c r="G77" t="n">
-        <v>-13.23791513818087</v>
+        <v>-11.14363082262798</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-5.907790159099276</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.51899862810485</v>
+        <v>-14.18328772901561</v>
       </c>
       <c r="F78" t="n">
-        <v>7.37545295557975</v>
+        <v>5.7814411566908</v>
       </c>
       <c r="G78" t="n">
-        <v>-13.20998424195019</v>
+        <v>-11.20200556461895</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-5.599631117654797</v>
       </c>
       <c r="E79" t="n">
-        <v>-15.58726871999445</v>
+        <v>-14.32558227387717</v>
       </c>
       <c r="F79" t="n">
-        <v>7.579534769225381</v>
+        <v>5.887733054984398</v>
       </c>
       <c r="G79" t="n">
-        <v>-12.96432142490144</v>
+        <v>-10.96508918085512</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-5.297556875194583</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.25205142872321</v>
+        <v>-14.95101336633414</v>
       </c>
       <c r="F80" t="n">
-        <v>7.548465130586136</v>
+        <v>5.856027845452455</v>
       </c>
       <c r="G80" t="n">
-        <v>-12.82313179559181</v>
+        <v>-10.92758072017214</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-4.998913141355887</v>
       </c>
       <c r="E81" t="n">
-        <v>-16.9832219616978</v>
+        <v>-15.6369410297623</v>
       </c>
       <c r="F81" t="n">
-        <v>7.658238001768978</v>
+        <v>5.995569879447941</v>
       </c>
       <c r="G81" t="n">
-        <v>-12.43738915379222</v>
+        <v>-10.62439384832728</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-4.711126075373719</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.74312518802926</v>
+        <v>-16.49668266532303</v>
       </c>
       <c r="F82" t="n">
-        <v>7.703153307855326</v>
+        <v>5.945350000910991</v>
       </c>
       <c r="G82" t="n">
-        <v>-12.39248851472647</v>
+        <v>-10.59956258245022</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-4.432215329554394</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.4605771677353</v>
+        <v>-17.11069303773888</v>
       </c>
       <c r="F83" t="n">
-        <v>7.8674043825562</v>
+        <v>6.107557470741495</v>
       </c>
       <c r="G83" t="n">
-        <v>-12.55894453152432</v>
+        <v>-10.67700934022902</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-4.159309854836393</v>
       </c>
       <c r="E84" t="n">
-        <v>-19.50640907167141</v>
+        <v>-18.25120544865966</v>
       </c>
       <c r="F84" t="n">
-        <v>7.604248698937636</v>
+        <v>6.063551519932393</v>
       </c>
       <c r="G84" t="n">
-        <v>-12.2736612028261</v>
+        <v>-10.46801407468214</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-3.899915266301117</v>
       </c>
       <c r="E85" t="n">
-        <v>-20.56848714542628</v>
+        <v>-19.30785183578539</v>
       </c>
       <c r="F85" t="n">
-        <v>8.028154928340363</v>
+        <v>6.308461429923631</v>
       </c>
       <c r="G85" t="n">
-        <v>-12.34015658522301</v>
+        <v>-10.3372282519853</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-3.651147302097123</v>
       </c>
       <c r="E86" t="n">
-        <v>-21.62394061487648</v>
+        <v>-20.41762217152701</v>
       </c>
       <c r="F86" t="n">
-        <v>7.976131006269521</v>
+        <v>6.254643242332631</v>
       </c>
       <c r="G86" t="n">
-        <v>-12.00167597280589</v>
+        <v>-10.01987303824011</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.418070182229697</v>
       </c>
       <c r="E87" t="n">
-        <v>-22.60239222617277</v>
+        <v>-21.45094799589756</v>
       </c>
       <c r="F87" t="n">
-        <v>8.090871108429148</v>
+        <v>6.299504769343443</v>
       </c>
       <c r="G87" t="n">
-        <v>-11.78577742956293</v>
+        <v>-9.701530245107815</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-3.208014120657966</v>
       </c>
       <c r="E88" t="n">
-        <v>-23.82821291791435</v>
+        <v>-22.78515796987865</v>
       </c>
       <c r="F88" t="n">
-        <v>8.089580410616282</v>
+        <v>6.384206813312744</v>
       </c>
       <c r="G88" t="n">
-        <v>-11.88388513036131</v>
+        <v>-9.770103455423163</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-3.022438965272629</v>
       </c>
       <c r="E89" t="n">
-        <v>-25.23192012450864</v>
+        <v>-24.33644962676449</v>
       </c>
       <c r="F89" t="n">
-        <v>8.007283758025503</v>
+        <v>6.265247498226969</v>
       </c>
       <c r="G89" t="n">
-        <v>-11.33530922585225</v>
+        <v>-9.291210565788244</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-2.873227442470415</v>
       </c>
       <c r="E90" t="n">
-        <v>-26.75214703176211</v>
+        <v>-25.93258814364055</v>
       </c>
       <c r="F90" t="n">
-        <v>8.1411203210073</v>
+        <v>6.367437519759226</v>
       </c>
       <c r="G90" t="n">
-        <v>-11.46191983668475</v>
+        <v>-9.319307688252403</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-2.76706143236103</v>
       </c>
       <c r="E91" t="n">
-        <v>-28.50709515869616</v>
+        <v>-27.85492608768404</v>
       </c>
       <c r="F91" t="n">
-        <v>8.259131168760893</v>
+        <v>6.347373035577407</v>
       </c>
       <c r="G91" t="n">
-        <v>-11.04952232944674</v>
+        <v>-9.002040476630825</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-2.709176402704253</v>
       </c>
       <c r="E92" t="n">
-        <v>-30.362065032617</v>
+        <v>-29.64037672846078</v>
       </c>
       <c r="F92" t="n">
-        <v>8.303777579469561</v>
+        <v>6.395969763834541</v>
       </c>
       <c r="G92" t="n">
-        <v>-11.02376704127183</v>
+        <v>-8.937398027836476</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-2.712369436495222</v>
       </c>
       <c r="E93" t="n">
-        <v>-31.94245361387129</v>
+        <v>-31.31652873172077</v>
       </c>
       <c r="F93" t="n">
-        <v>8.186016071066181</v>
+        <v>6.356173247937854</v>
       </c>
       <c r="G93" t="n">
-        <v>-11.11199894819904</v>
+        <v>-8.892424053667725</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-2.77624258567192</v>
       </c>
       <c r="E94" t="n">
-        <v>-33.97210281414013</v>
+        <v>-33.52132171398997</v>
       </c>
       <c r="F94" t="n">
-        <v>8.069173695953779</v>
+        <v>6.252951645956679</v>
       </c>
       <c r="G94" t="n">
-        <v>-10.49026394493347</v>
+        <v>-8.500188810748872</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-2.903245676067224</v>
       </c>
       <c r="E95" t="n">
-        <v>-36.20296642552715</v>
+        <v>-35.66157247210559</v>
       </c>
       <c r="F95" t="n">
-        <v>7.915893552662262</v>
+        <v>6.099475942390485</v>
       </c>
       <c r="G95" t="n">
-        <v>-9.961185399809667</v>
+        <v>-8.118210704236807</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-3.09955402363464</v>
       </c>
       <c r="E96" t="n">
-        <v>-38.16328461941627</v>
+        <v>-37.79805625043026</v>
       </c>
       <c r="F96" t="n">
-        <v>7.745956562975166</v>
+        <v>5.985166072835146</v>
       </c>
       <c r="G96" t="n">
-        <v>-9.411367687556412</v>
+        <v>-7.728767084238964</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-3.351227726749743</v>
       </c>
       <c r="E97" t="n">
-        <v>-40.76431938573176</v>
+        <v>-40.23873403601437</v>
       </c>
       <c r="F97" t="n">
-        <v>7.417107294085866</v>
+        <v>5.624474702221629</v>
       </c>
       <c r="G97" t="n">
-        <v>-9.047659799706008</v>
+        <v>-7.482038463693234</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-3.667680587335363</v>
       </c>
       <c r="E98" t="n">
-        <v>-42.75046620289879</v>
+        <v>-42.37579716165276</v>
       </c>
       <c r="F98" t="n">
-        <v>7.157149020958264</v>
+        <v>5.606341375752241</v>
       </c>
       <c r="G98" t="n">
-        <v>-8.557390191091777</v>
+        <v>-7.269845787655391</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.025664939350612</v>
       </c>
       <c r="E99" t="n">
-        <v>-45.41268933465716</v>
+        <v>-44.9566329960976</v>
       </c>
       <c r="F99" t="n">
-        <v>6.706411921869907</v>
+        <v>5.028299426856287</v>
       </c>
       <c r="G99" t="n">
-        <v>-8.18914041586201</v>
+        <v>-6.844472856192589</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.440674216255528</v>
       </c>
       <c r="E100" t="n">
-        <v>-47.77536423793136</v>
+        <v>-47.52832394319786</v>
       </c>
       <c r="F100" t="n">
-        <v>6.188152748942588</v>
+        <v>4.651572113719288</v>
       </c>
       <c r="G100" t="n">
-        <v>-7.846993048294701</v>
+        <v>-6.664591626538187</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.867002610535558</v>
       </c>
       <c r="E101" t="n">
-        <v>-49.92765417545676</v>
+        <v>-49.64110214947657</v>
       </c>
       <c r="F101" t="n">
-        <v>5.964343792588956</v>
+        <v>4.537951594132185</v>
       </c>
       <c r="G101" t="n">
-        <v>-7.592569130940447</v>
+        <v>-6.623719529130779</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-5.362332489120326</v>
       </c>
       <c r="E102" t="n">
-        <v>-52.01432508506615</v>
+        <v>-51.85335942297984</v>
       </c>
       <c r="F102" t="n">
-        <v>5.401345317822497</v>
+        <v>4.016856797222055</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.42386905999068</v>
+        <v>-6.464191235063343</v>
       </c>
     </row>
   </sheetData>
